--- a/Code/Results/Cases/Case_5_187/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_187/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.949826850131871</v>
+        <v>0.7164481774827038</v>
       </c>
       <c r="C2">
-        <v>0.5120317686499618</v>
+        <v>0.1654998379516996</v>
       </c>
       <c r="D2">
-        <v>0.1206313718533636</v>
+        <v>0.1997473665255285</v>
       </c>
       <c r="E2">
-        <v>0.08094518267504824</v>
+        <v>0.1554444581064871</v>
       </c>
       <c r="F2">
-        <v>0.726768761444319</v>
+        <v>1.203585321672342</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.2338339341252968</v>
+        <v>0.5308228575646829</v>
       </c>
       <c r="J2">
-        <v>0.07546730077655184</v>
+        <v>0.1612949153979244</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5894694186729978</v>
+        <v>0.330032997183082</v>
       </c>
       <c r="N2">
-        <v>0.7058058230693476</v>
+        <v>1.185044160131291</v>
       </c>
       <c r="O2">
-        <v>1.668609643569454</v>
+        <v>2.763206647604108</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.695492582490999</v>
+        <v>0.6398855889804906</v>
       </c>
       <c r="C3">
-        <v>0.4459572317628044</v>
+        <v>0.1453888957765912</v>
       </c>
       <c r="D3">
-        <v>0.1108631412868846</v>
+        <v>0.1980223503766538</v>
       </c>
       <c r="E3">
-        <v>0.0763674939426906</v>
+        <v>0.15520883428999</v>
       </c>
       <c r="F3">
-        <v>0.6827402953905946</v>
+        <v>1.202166773392321</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.2338701254573792</v>
+        <v>0.5359569668228197</v>
       </c>
       <c r="J3">
-        <v>0.07297972864944668</v>
+        <v>0.1618627829399131</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5138593932535542</v>
+        <v>0.3090634346379275</v>
       </c>
       <c r="N3">
-        <v>0.7256881746939428</v>
+        <v>1.19461734461435</v>
       </c>
       <c r="O3">
-        <v>1.574116132700283</v>
+        <v>2.763768563917949</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.539503188206766</v>
+        <v>0.5928852870376318</v>
       </c>
       <c r="C4">
-        <v>0.4054251229431145</v>
+        <v>0.1330184562545185</v>
       </c>
       <c r="D4">
-        <v>0.1049585559905992</v>
+        <v>0.1970311934780113</v>
       </c>
       <c r="E4">
-        <v>0.07366108440920982</v>
+        <v>0.1551299897062073</v>
       </c>
       <c r="F4">
-        <v>0.6571000960021465</v>
+        <v>1.202008855747827</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.2345583305261023</v>
+        <v>0.5394442511005018</v>
       </c>
       <c r="J4">
-        <v>0.0715893870229003</v>
+        <v>0.162290088693787</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4676363577164864</v>
+        <v>0.2962820982477794</v>
       </c>
       <c r="N4">
-        <v>0.738845437317984</v>
+        <v>1.200953084107304</v>
       </c>
       <c r="O4">
-        <v>1.519755235597842</v>
+        <v>2.765888525533711</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.475960207227985</v>
+        <v>0.5737358378647457</v>
       </c>
       <c r="C5">
-        <v>0.3889118008027594</v>
+        <v>0.1279720694116406</v>
       </c>
       <c r="D5">
-        <v>0.1025745440297356</v>
+        <v>0.1966444599926334</v>
       </c>
       <c r="E5">
-        <v>0.07258315744917709</v>
+        <v>0.1551144391353354</v>
       </c>
       <c r="F5">
-        <v>0.6469821396991478</v>
+        <v>1.2021238025104</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.2349984353199339</v>
+        <v>0.5409494834176556</v>
       </c>
       <c r="J5">
-        <v>0.07105564128544017</v>
+        <v>0.1624839963423703</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4488432684031309</v>
+        <v>0.2910975748828335</v>
       </c>
       <c r="N5">
-        <v>0.7444389300221772</v>
+        <v>1.203650151577357</v>
       </c>
       <c r="O5">
-        <v>1.498469796634282</v>
+        <v>2.767198470183587</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.4654098434047</v>
+        <v>0.570556336013226</v>
       </c>
       <c r="C6">
-        <v>0.3861698485545446</v>
+        <v>0.1271338063318979</v>
       </c>
       <c r="D6">
-        <v>0.1021799828997914</v>
+        <v>0.1965812823202739</v>
       </c>
       <c r="E6">
-        <v>0.07240563979608439</v>
+        <v>0.1551128590833315</v>
       </c>
       <c r="F6">
-        <v>0.6453214707024415</v>
+        <v>1.202153718327594</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.2350809357232571</v>
+        <v>0.5412045052603069</v>
       </c>
       <c r="J6">
-        <v>0.07096894990009872</v>
+        <v>0.1625173891744183</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4457250844853888</v>
+        <v>0.2902381462740706</v>
       </c>
       <c r="N6">
-        <v>0.7453815294028914</v>
+        <v>1.204104958324194</v>
       </c>
       <c r="O6">
-        <v>1.494986237346211</v>
+        <v>2.767442917219881</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.538646153245679</v>
+        <v>0.5926270149048207</v>
       </c>
       <c r="C7">
-        <v>0.405202410223751</v>
+        <v>0.1329504201606824</v>
       </c>
       <c r="D7">
-        <v>0.1049263162978704</v>
+        <v>0.1970259082371513</v>
       </c>
       <c r="E7">
-        <v>0.07364644769657502</v>
+        <v>0.1551297128223759</v>
       </c>
       <c r="F7">
-        <v>0.6569623283972632</v>
+        <v>1.202009679997097</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.2345636295488518</v>
+        <v>0.5394642106384318</v>
       </c>
       <c r="J7">
-        <v>0.07158205791052197</v>
+        <v>0.1622926237176721</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4673827424400159</v>
+        <v>0.2962120804503812</v>
       </c>
       <c r="N7">
-        <v>0.7389199434641895</v>
+        <v>1.20098899112795</v>
       </c>
       <c r="O7">
-        <v>1.519464730002568</v>
+        <v>2.765904386270563</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.862084331705944</v>
+        <v>0.6900481235519464</v>
       </c>
       <c r="C8">
-        <v>0.489237839395912</v>
+        <v>0.1585703508069685</v>
       </c>
       <c r="D8">
-        <v>0.117243166480371</v>
+        <v>0.1991385061599189</v>
       </c>
       <c r="E8">
-        <v>0.07934435935058204</v>
+        <v>0.1553495672340262</v>
       </c>
       <c r="F8">
-        <v>0.7112863228160009</v>
+        <v>1.202948197420781</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.2337033712808108</v>
+        <v>0.53252353583445</v>
       </c>
       <c r="J8">
-        <v>0.07458013739945812</v>
+        <v>0.161474398175578</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.56335247558129</v>
+        <v>0.3227833566020095</v>
       </c>
       <c r="N8">
-        <v>0.7124599221357997</v>
+        <v>1.188250040053227</v>
       </c>
       <c r="O8">
-        <v>1.635236279629112</v>
+        <v>2.763031829793505</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.498687628239281</v>
+        <v>0.8811228956523678</v>
       </c>
       <c r="C9">
-        <v>0.6546149637039491</v>
+        <v>0.2086254696965852</v>
       </c>
       <c r="D9">
-        <v>0.142197302507995</v>
+        <v>0.2038182534638509</v>
       </c>
       <c r="E9">
-        <v>0.09140673857146453</v>
+        <v>0.1563020753515723</v>
       </c>
       <c r="F9">
-        <v>0.82981830990731</v>
+        <v>1.210448915933384</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.2376718716406714</v>
+        <v>0.5215741899957145</v>
       </c>
       <c r="J9">
-        <v>0.08162457553755331</v>
+        <v>0.1604937151416479</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7535230225134271</v>
+        <v>0.3756244571425356</v>
       </c>
       <c r="N9">
-        <v>0.6684347692230261</v>
+        <v>1.16689719385699</v>
       </c>
       <c r="O9">
-        <v>1.893823141000723</v>
+        <v>2.771498834094132</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.96931524542515</v>
+        <v>1.021481722438295</v>
       </c>
       <c r="C10">
-        <v>0.7769074609859388</v>
+        <v>0.2452792984621226</v>
       </c>
       <c r="D10">
-        <v>0.1611120952673701</v>
+        <v>0.207580741090382</v>
       </c>
       <c r="E10">
-        <v>0.1009016047837825</v>
+        <v>0.1573187209383491</v>
       </c>
       <c r="F10">
-        <v>0.9256231663383119</v>
+        <v>1.219416372708011</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.2445811881518978</v>
+        <v>0.5151576068202992</v>
       </c>
       <c r="J10">
-        <v>0.0876256421961159</v>
+        <v>0.1601536291777492</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8950108734086157</v>
+        <v>0.4148835828581809</v>
       </c>
       <c r="N10">
-        <v>0.6413670821124597</v>
+        <v>1.153415967744948</v>
       </c>
       <c r="O10">
-        <v>2.106793678410781</v>
+        <v>2.78634428363236</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.184408739941205</v>
+        <v>1.085321043901388</v>
       </c>
       <c r="C11">
-        <v>0.8328185434338025</v>
+        <v>0.2619260499059521</v>
       </c>
       <c r="D11">
-        <v>0.1698652100562015</v>
+        <v>0.2093621935758563</v>
       </c>
       <c r="E11">
-        <v>0.1053800263368245</v>
+        <v>0.157849823266865</v>
       </c>
       <c r="F11">
-        <v>0.9714346956194362</v>
+        <v>1.224247958757971</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.2487211989336302</v>
+        <v>0.5125932227040941</v>
       </c>
       <c r="J11">
-        <v>0.09056234148929576</v>
+        <v>0.1600815571731289</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9598979345759631</v>
+        <v>0.4328362805450681</v>
       </c>
       <c r="N11">
-        <v>0.630314353954617</v>
+        <v>1.147761183617654</v>
       </c>
       <c r="O11">
-        <v>2.209564380771297</v>
+        <v>2.794977244958147</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.266034772242222</v>
+        <v>1.109492791744287</v>
       </c>
       <c r="C12">
-        <v>0.854040168595958</v>
+        <v>0.2682256051931518</v>
       </c>
       <c r="D12">
-        <v>0.1732031088870372</v>
+        <v>0.2100467691945198</v>
       </c>
       <c r="E12">
-        <v>0.1071006904065328</v>
+        <v>0.1580607846934825</v>
       </c>
       <c r="F12">
-        <v>0.9891327792137332</v>
+        <v>1.226185793187639</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.2504438988875073</v>
+        <v>0.5116732397632902</v>
       </c>
       <c r="J12">
-        <v>0.09170657890339129</v>
+        <v>0.160066148413307</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9845562724260972</v>
+        <v>0.4396476769410071</v>
       </c>
       <c r="N12">
-        <v>0.6263206157534498</v>
+        <v>1.145688519015835</v>
       </c>
       <c r="O12">
-        <v>2.249407901069816</v>
+        <v>2.798517045200356</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.248446857941644</v>
+        <v>1.104287119218384</v>
       </c>
       <c r="C13">
-        <v>0.8494673655563361</v>
+        <v>0.2668690749977429</v>
       </c>
       <c r="D13">
-        <v>0.1724831653063887</v>
+        <v>0.2098988909180264</v>
       </c>
       <c r="E13">
-        <v>0.1067289807592182</v>
+        <v>0.1580149129163573</v>
       </c>
       <c r="F13">
-        <v>0.9853051073108077</v>
+        <v>1.225763632141636</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.2500657987549353</v>
+        <v>0.5118691004029507</v>
       </c>
       <c r="J13">
-        <v>0.09145867530914842</v>
+        <v>0.1600689384415617</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9792415914830528</v>
+        <v>0.4381801438148258</v>
       </c>
       <c r="N13">
-        <v>0.6271720395444973</v>
+        <v>1.146131850495621</v>
       </c>
       <c r="O13">
-        <v>2.24078435034761</v>
+        <v>2.797742640936434</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.191120475522439</v>
+        <v>1.087309732006418</v>
       </c>
       <c r="C14">
-        <v>0.8345634161435385</v>
+        <v>0.26244440410008</v>
       </c>
       <c r="D14">
-        <v>0.1701393429614626</v>
+        <v>0.2094183144476602</v>
       </c>
       <c r="E14">
-        <v>0.1055210783807432</v>
+        <v>0.157866982027695</v>
       </c>
       <c r="F14">
-        <v>0.9728835304665324</v>
+        <v>1.224405216460767</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.2488597512934838</v>
+        <v>0.5125165105338532</v>
       </c>
       <c r="J14">
-        <v>0.09065581920817323</v>
+        <v>0.1600800513221969</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9619247764768559</v>
+        <v>0.4333963976941746</v>
       </c>
       <c r="N14">
-        <v>0.6299818826691421</v>
+        <v>1.147589288035718</v>
       </c>
       <c r="O14">
-        <v>2.212823286280724</v>
+        <v>2.795263039308026</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.156030124669712</v>
+        <v>1.076910186881832</v>
       </c>
       <c r="C15">
-        <v>0.8254410218828525</v>
+        <v>0.2597336088314819</v>
       </c>
       <c r="D15">
-        <v>0.1687067752100546</v>
+        <v>0.2091252448615393</v>
       </c>
       <c r="E15">
-        <v>0.1047844893205507</v>
+        <v>0.1577776514281481</v>
       </c>
       <c r="F15">
-        <v>0.9653214860770163</v>
+        <v>1.22358724210919</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.2481415522754808</v>
+        <v>0.5129197250847142</v>
       </c>
       <c r="J15">
-        <v>0.09016831187102525</v>
+        <v>0.1600884058617069</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9513294231036724</v>
+        <v>0.4304679106346327</v>
       </c>
       <c r="N15">
-        <v>0.6317282781374516</v>
+        <v>1.148490953553555</v>
       </c>
       <c r="O15">
-        <v>2.195819444685725</v>
+        <v>2.793779474379676</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.955281117570564</v>
+        <v>1.017309348628203</v>
       </c>
       <c r="C16">
-        <v>0.7732599277689189</v>
+        <v>0.2441908209205508</v>
       </c>
       <c r="D16">
-        <v>0.1605432101967779</v>
+        <v>0.2074657191061817</v>
       </c>
       <c r="E16">
-        <v>0.1006122911913678</v>
+        <v>0.1572853910383287</v>
       </c>
       <c r="F16">
-        <v>0.9226766243808839</v>
+        <v>1.219115758216986</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.2443316636627664</v>
+        <v>0.5153323392106444</v>
       </c>
       <c r="J16">
-        <v>0.08743808750566728</v>
+        <v>0.1601600021235257</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8907818686007047</v>
+        <v>0.4137121839296896</v>
       </c>
       <c r="N16">
-        <v>0.6421156441406524</v>
+        <v>1.153795134015027</v>
       </c>
       <c r="O16">
-        <v>2.100202554428591</v>
+        <v>2.785817956708058</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.832405933549808</v>
+        <v>0.9807425269557939</v>
       </c>
       <c r="C17">
-        <v>0.7413263734931093</v>
+        <v>0.2346486369505669</v>
       </c>
       <c r="D17">
-        <v>0.1555745212691022</v>
+        <v>0.2064655012970746</v>
       </c>
       <c r="E17">
-        <v>0.09809485540711549</v>
+        <v>0.1570009649045261</v>
       </c>
       <c r="F17">
-        <v>0.8971068369560129</v>
+        <v>1.216565348463746</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.2422577678355928</v>
+        <v>0.5169032870569943</v>
       </c>
       <c r="J17">
-        <v>0.08581782669433835</v>
+        <v>0.1602250892587094</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8537800606456329</v>
+        <v>0.4034567935567637</v>
       </c>
       <c r="N17">
-        <v>0.6488180039829174</v>
+        <v>1.15717144630581</v>
       </c>
       <c r="O17">
-        <v>2.043107943666996</v>
+        <v>2.781415534259054</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.761823777421625</v>
+        <v>0.9597093364213265</v>
       </c>
       <c r="C18">
-        <v>0.722984767424947</v>
+        <v>0.2291576765708498</v>
       </c>
       <c r="D18">
-        <v>0.152730535624471</v>
+        <v>0.2058967839038246</v>
       </c>
       <c r="E18">
-        <v>0.09666175266904631</v>
+        <v>0.1568438312565377</v>
       </c>
       <c r="F18">
-        <v>0.8826077174890372</v>
+        <v>1.21516922239816</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.2411580120874426</v>
+        <v>0.5178402202562253</v>
       </c>
       <c r="J18">
-        <v>0.08490520320609818</v>
+        <v>0.1602703036015143</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8325461218695409</v>
+        <v>0.3975669880895083</v>
       </c>
       <c r="N18">
-        <v>0.6527910029703818</v>
+        <v>1.159158395587156</v>
       </c>
       <c r="O18">
-        <v>2.010817870884352</v>
+        <v>2.779060279741913</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.737940848007497</v>
+        <v>0.9525877405669689</v>
       </c>
       <c r="C19">
-        <v>0.7167787687184273</v>
+        <v>0.227298102813478</v>
       </c>
       <c r="D19">
-        <v>0.1517699377633477</v>
+        <v>0.2057053584732671</v>
       </c>
       <c r="E19">
-        <v>0.09617902523137545</v>
+        <v>0.1567917388644204</v>
       </c>
       <c r="F19">
-        <v>0.877733410060344</v>
+        <v>1.214708677037876</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.2408013019532014</v>
+        <v>0.5181631769639559</v>
       </c>
       <c r="J19">
-        <v>0.08459944917826334</v>
+        <v>0.1602869482536207</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8253646658884435</v>
+        <v>0.3955743273085019</v>
       </c>
       <c r="N19">
-        <v>0.6541561486398777</v>
+        <v>1.159838869798492</v>
       </c>
       <c r="O19">
-        <v>1.999977006152534</v>
+        <v>2.778293202352529</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.845476429508267</v>
+        <v>0.9846352323193628</v>
       </c>
       <c r="C20">
-        <v>0.7447230283906094</v>
+        <v>0.2356646845793762</v>
       </c>
       <c r="D20">
-        <v>0.1561019975363394</v>
+        <v>0.2065712955447481</v>
       </c>
       <c r="E20">
-        <v>0.09836128950020395</v>
+        <v>0.1570305740615154</v>
       </c>
       <c r="F20">
-        <v>0.8998070547187211</v>
+        <v>1.216829515842051</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.2424688211383916</v>
+        <v>0.5167326029726702</v>
       </c>
       <c r="J20">
-        <v>0.08598829083913273</v>
+        <v>0.1602173556298894</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8577138622445162</v>
+        <v>0.40454758666732</v>
       </c>
       <c r="N20">
-        <v>0.6480922426359186</v>
+        <v>1.156807376758387</v>
       </c>
       <c r="O20">
-        <v>2.049128360071222</v>
+        <v>2.78186586808576</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.207953623628384</v>
+        <v>1.092296488922329</v>
       </c>
       <c r="C21">
-        <v>0.838939652684985</v>
+        <v>0.2637441537028167</v>
       </c>
       <c r="D21">
-        <v>0.1708271326237707</v>
+        <v>0.2095592011586263</v>
       </c>
       <c r="E21">
-        <v>0.1058751802114415</v>
+        <v>0.1579101659275395</v>
       </c>
       <c r="F21">
-        <v>0.976522295864342</v>
+        <v>1.224801278718161</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.2492096942945459</v>
+        <v>0.5123249629452147</v>
       </c>
       <c r="J21">
-        <v>0.09089074404317898</v>
+        <v>0.1600764646849626</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9670086851693753</v>
+        <v>0.4348011471578559</v>
       </c>
       <c r="N21">
-        <v>0.6291512745500327</v>
+        <v>1.147159339667787</v>
       </c>
       <c r="O21">
-        <v>2.22101032066189</v>
+        <v>2.795984009016109</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.445888259447315</v>
+        <v>1.162642322198735</v>
       </c>
       <c r="C22">
-        <v>0.9008078789233309</v>
+        <v>0.2820710478123374</v>
       </c>
       <c r="D22">
-        <v>0.1805875608304319</v>
+        <v>0.2115700984425359</v>
       </c>
       <c r="E22">
-        <v>0.1109313743105922</v>
+        <v>0.1585424003534968</v>
       </c>
       <c r="F22">
-        <v>1.0287170216628</v>
+        <v>1.230642082548655</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.2545245037612958</v>
+        <v>0.5097421791049541</v>
       </c>
       <c r="J22">
-        <v>0.09428356943195126</v>
+        <v>0.1600536498056897</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.038952481529712</v>
+        <v>0.4546497892959493</v>
       </c>
       <c r="N22">
-        <v>0.6178949339398727</v>
+        <v>1.14125408985025</v>
       </c>
       <c r="O22">
-        <v>2.338786608622456</v>
+        <v>2.806788968843136</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.318792615078962</v>
+        <v>1.125099410752682</v>
       </c>
       <c r="C23">
-        <v>0.8677576926587847</v>
+        <v>0.2722919912889381</v>
       </c>
       <c r="D23">
-        <v>0.1753650634410917</v>
+        <v>0.2104915491309214</v>
       </c>
       <c r="E23">
-        <v>0.1082188195022624</v>
+        <v>0.1581997233863532</v>
       </c>
       <c r="F23">
-        <v>1.000661138110431</v>
+        <v>1.227467002841891</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.2516006396590029</v>
+        <v>0.5110933687503092</v>
       </c>
       <c r="J23">
-        <v>0.09245462883509248</v>
+        <v>0.1600594885472759</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.000503636548522</v>
+        <v>0.4440493392536595</v>
       </c>
       <c r="N23">
-        <v>0.6237962951681979</v>
+        <v>1.144369217799522</v>
       </c>
       <c r="O23">
-        <v>2.27540144358403</v>
+        <v>2.80087764940572</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.839567072363252</v>
+        <v>0.9828753726376931</v>
       </c>
       <c r="C24">
-        <v>0.7431873471320216</v>
+        <v>0.2352053450989615</v>
       </c>
       <c r="D24">
-        <v>0.1558634864751127</v>
+        <v>0.2065234462712198</v>
       </c>
       <c r="E24">
-        <v>0.09824079054422086</v>
+        <v>0.1570171678661048</v>
       </c>
       <c r="F24">
-        <v>0.8985856615062886</v>
+        <v>1.216709867296032</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.2423731165216623</v>
+        <v>0.5168096640494184</v>
       </c>
       <c r="J24">
-        <v>0.08591116535578891</v>
+        <v>0.1602208277229877</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8559352702731147</v>
+        <v>0.4040544199037015</v>
       </c>
       <c r="N24">
-        <v>0.6484199872110281</v>
+        <v>1.156971829736889</v>
       </c>
       <c r="O24">
-        <v>2.046404871292424</v>
+        <v>2.781661724716059</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.326071694618349</v>
+        <v>0.8294331560998671</v>
       </c>
       <c r="C25">
-        <v>0.6097707270363912</v>
+        <v>0.1951049809720757</v>
       </c>
       <c r="D25">
-        <v>0.1353515900161852</v>
+        <v>0.202495090591313</v>
       </c>
       <c r="E25">
-        <v>0.08803936345597307</v>
+        <v>0.1559886840671147</v>
       </c>
       <c r="F25">
-        <v>0.7963279927531346</v>
+        <v>1.207813176399526</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.2359385447520346</v>
+        <v>0.5242507989951015</v>
       </c>
       <c r="J25">
-        <v>0.07958267864032109</v>
+        <v>0.1606922174407046</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7018094339302863</v>
+        <v>0.3612520267732222</v>
       </c>
       <c r="N25">
-        <v>0.6794548924727692</v>
+        <v>1.172285828940971</v>
       </c>
       <c r="O25">
-        <v>1.820117789708831</v>
+        <v>2.767695776451376</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_187/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_187/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7164481774827038</v>
+        <v>1.949826850131842</v>
       </c>
       <c r="C2">
-        <v>0.1654998379516996</v>
+        <v>0.5120317686501323</v>
       </c>
       <c r="D2">
-        <v>0.1997473665255285</v>
+        <v>0.1206313718534773</v>
       </c>
       <c r="E2">
-        <v>0.1554444581064871</v>
+        <v>0.08094518267504114</v>
       </c>
       <c r="F2">
-        <v>1.203585321672342</v>
+        <v>0.726768761444319</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.5308228575646829</v>
+        <v>0.2338339341253075</v>
       </c>
       <c r="J2">
-        <v>0.1612949153979244</v>
+        <v>0.07546730077648078</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.330032997183082</v>
+        <v>0.5894694186729907</v>
       </c>
       <c r="N2">
-        <v>1.185044160131291</v>
+        <v>0.7058058230693263</v>
       </c>
       <c r="O2">
-        <v>2.763206647604108</v>
+        <v>1.668609643569511</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6398855889804906</v>
+        <v>1.695492582490857</v>
       </c>
       <c r="C3">
-        <v>0.1453888957765912</v>
+        <v>0.4459572317630034</v>
       </c>
       <c r="D3">
-        <v>0.1980223503766538</v>
+        <v>0.1108631412869343</v>
       </c>
       <c r="E3">
-        <v>0.15520883428999</v>
+        <v>0.07636749394268705</v>
       </c>
       <c r="F3">
-        <v>1.202166773392321</v>
+        <v>0.6827402953905946</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.5359569668228197</v>
+        <v>0.2338701254573685</v>
       </c>
       <c r="J3">
-        <v>0.1618627829399131</v>
+        <v>0.07297972864932234</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3090634346379275</v>
+        <v>0.51385939325354</v>
       </c>
       <c r="N3">
-        <v>1.19461734461435</v>
+        <v>0.7256881746939357</v>
       </c>
       <c r="O3">
-        <v>2.763768563917949</v>
+        <v>1.574116132700254</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5928852870376318</v>
+        <v>1.539503188206595</v>
       </c>
       <c r="C4">
-        <v>0.1330184562545185</v>
+        <v>0.4054251229433419</v>
       </c>
       <c r="D4">
-        <v>0.1970311934780113</v>
+        <v>0.1049585559908408</v>
       </c>
       <c r="E4">
-        <v>0.1551299897062073</v>
+        <v>0.07366108440919561</v>
       </c>
       <c r="F4">
-        <v>1.202008855747827</v>
+        <v>0.6571000960021465</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.5394442511005018</v>
+        <v>0.2345583305260988</v>
       </c>
       <c r="J4">
-        <v>0.162290088693787</v>
+        <v>0.07158938702298911</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2962820982477794</v>
+        <v>0.4676363577164935</v>
       </c>
       <c r="N4">
-        <v>1.200953084107304</v>
+        <v>0.738845437317984</v>
       </c>
       <c r="O4">
-        <v>2.765888525533711</v>
+        <v>1.519755235597898</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5737358378647457</v>
+        <v>1.475960207228098</v>
       </c>
       <c r="C5">
-        <v>0.1279720694116406</v>
+        <v>0.3889118008029016</v>
       </c>
       <c r="D5">
-        <v>0.1966444599926334</v>
+        <v>0.1025745440297712</v>
       </c>
       <c r="E5">
-        <v>0.1551144391353354</v>
+        <v>0.07258315744917354</v>
       </c>
       <c r="F5">
-        <v>1.2021238025104</v>
+        <v>0.6469821396991549</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.5409494834176556</v>
+        <v>0.2349984353199339</v>
       </c>
       <c r="J5">
-        <v>0.1624839963423703</v>
+        <v>0.07105564128545439</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2910975748828335</v>
+        <v>0.4488432684031309</v>
       </c>
       <c r="N5">
-        <v>1.203650151577357</v>
+        <v>0.744438930022163</v>
       </c>
       <c r="O5">
-        <v>2.767198470183587</v>
+        <v>1.498469796634339</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.570556336013226</v>
+        <v>1.465409843404785</v>
       </c>
       <c r="C6">
-        <v>0.1271338063318979</v>
+        <v>0.3861698485544878</v>
       </c>
       <c r="D6">
-        <v>0.1965812823202739</v>
+        <v>0.1021799828998908</v>
       </c>
       <c r="E6">
-        <v>0.1551128590833315</v>
+        <v>0.0724056397960986</v>
       </c>
       <c r="F6">
-        <v>1.202153718327594</v>
+        <v>0.6453214707024486</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.5412045052603069</v>
+        <v>0.2350809357232642</v>
       </c>
       <c r="J6">
-        <v>0.1625173891744183</v>
+        <v>0.07096894990012714</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2902381462740706</v>
+        <v>0.4457250844853959</v>
       </c>
       <c r="N6">
-        <v>1.204104958324194</v>
+        <v>0.7453815294028914</v>
       </c>
       <c r="O6">
-        <v>2.767442917219881</v>
+        <v>1.494986237346268</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5926270149048207</v>
+        <v>1.538646153245708</v>
       </c>
       <c r="C7">
-        <v>0.1329504201606824</v>
+        <v>0.4052024102236658</v>
       </c>
       <c r="D7">
-        <v>0.1970259082371513</v>
+        <v>0.1049263162977638</v>
       </c>
       <c r="E7">
-        <v>0.1551297128223759</v>
+        <v>0.07364644769658923</v>
       </c>
       <c r="F7">
-        <v>1.202009679997097</v>
+        <v>0.6569623283972277</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.5394642106384318</v>
+        <v>0.2345636295488482</v>
       </c>
       <c r="J7">
-        <v>0.1622926237176721</v>
+        <v>0.07158205791053618</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2962120804503812</v>
+        <v>0.467382742440023</v>
       </c>
       <c r="N7">
-        <v>1.20098899112795</v>
+        <v>0.7389199434641824</v>
       </c>
       <c r="O7">
-        <v>2.765904386270563</v>
+        <v>1.519464730002596</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6900481235519464</v>
+        <v>1.862084331706086</v>
       </c>
       <c r="C8">
-        <v>0.1585703508069685</v>
+        <v>0.489237839396111</v>
       </c>
       <c r="D8">
-        <v>0.1991385061599189</v>
+        <v>0.1172431664806552</v>
       </c>
       <c r="E8">
-        <v>0.1553495672340262</v>
+        <v>0.07934435935058914</v>
       </c>
       <c r="F8">
-        <v>1.202948197420781</v>
+        <v>0.7112863228160222</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.53252353583445</v>
+        <v>0.2337033712808179</v>
       </c>
       <c r="J8">
-        <v>0.161474398175578</v>
+        <v>0.07458013739950431</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3227833566020095</v>
+        <v>0.5633524755812758</v>
       </c>
       <c r="N8">
-        <v>1.188250040053227</v>
+        <v>0.7124599221358068</v>
       </c>
       <c r="O8">
-        <v>2.763031829793505</v>
+        <v>1.63523627962914</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8811228956523678</v>
+        <v>2.498687628239225</v>
       </c>
       <c r="C9">
-        <v>0.2086254696965852</v>
+        <v>0.6546149637040628</v>
       </c>
       <c r="D9">
-        <v>0.2038182534638509</v>
+        <v>0.1421973025077676</v>
       </c>
       <c r="E9">
-        <v>0.1563020753515723</v>
+        <v>0.09140673857149295</v>
       </c>
       <c r="F9">
-        <v>1.210448915933384</v>
+        <v>0.82981830990731</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.5215741899957145</v>
+        <v>0.2376718716406572</v>
       </c>
       <c r="J9">
-        <v>0.1604937151416479</v>
+        <v>0.08162457553746094</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3756244571425356</v>
+        <v>0.7535230225134484</v>
       </c>
       <c r="N9">
-        <v>1.16689719385699</v>
+        <v>0.668434769223019</v>
       </c>
       <c r="O9">
-        <v>2.771498834094132</v>
+        <v>1.893823141000723</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.021481722438295</v>
+        <v>2.96931524542498</v>
       </c>
       <c r="C10">
-        <v>0.2452792984621226</v>
+        <v>0.7769074609859388</v>
       </c>
       <c r="D10">
-        <v>0.207580741090382</v>
+        <v>0.1611120952674696</v>
       </c>
       <c r="E10">
-        <v>0.1573187209383491</v>
+        <v>0.1009016047837896</v>
       </c>
       <c r="F10">
-        <v>1.219416372708011</v>
+        <v>0.9256231663382977</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.5151576068202992</v>
+        <v>0.2445811881518942</v>
       </c>
       <c r="J10">
-        <v>0.1601536291777492</v>
+        <v>0.08762564219613012</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4148835828581809</v>
+        <v>0.8950108734086442</v>
       </c>
       <c r="N10">
-        <v>1.153415967744948</v>
+        <v>0.6413670821124455</v>
       </c>
       <c r="O10">
-        <v>2.78634428363236</v>
+        <v>2.106793678410781</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.085321043901388</v>
+        <v>3.184408739941091</v>
       </c>
       <c r="C11">
-        <v>0.2619260499059521</v>
+        <v>0.8328185434338025</v>
       </c>
       <c r="D11">
-        <v>0.2093621935758563</v>
+        <v>0.1698652100560594</v>
       </c>
       <c r="E11">
-        <v>0.157849823266865</v>
+        <v>0.1053800263368032</v>
       </c>
       <c r="F11">
-        <v>1.224247958757971</v>
+        <v>0.9714346956194504</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.5125932227040941</v>
+        <v>0.2487211989336195</v>
       </c>
       <c r="J11">
-        <v>0.1600815571731289</v>
+        <v>0.0905623414893526</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4328362805450681</v>
+        <v>0.9598979345759844</v>
       </c>
       <c r="N11">
-        <v>1.147761183617654</v>
+        <v>0.6303143539546099</v>
       </c>
       <c r="O11">
-        <v>2.794977244958147</v>
+        <v>2.209564380771297</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.109492791744287</v>
+        <v>3.266034772242108</v>
       </c>
       <c r="C12">
-        <v>0.2682256051931518</v>
+        <v>0.854040168595958</v>
       </c>
       <c r="D12">
-        <v>0.2100467691945198</v>
+        <v>0.1732031088871366</v>
       </c>
       <c r="E12">
-        <v>0.1580607846934825</v>
+        <v>0.1071006904065293</v>
       </c>
       <c r="F12">
-        <v>1.226185793187639</v>
+        <v>0.9891327792137474</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.5116732397632902</v>
+        <v>0.2504438988874895</v>
       </c>
       <c r="J12">
-        <v>0.160066148413307</v>
+        <v>0.09170657890336997</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4396476769410071</v>
+        <v>0.9845562724260972</v>
       </c>
       <c r="N12">
-        <v>1.145688519015835</v>
+        <v>0.6263206157534356</v>
       </c>
       <c r="O12">
-        <v>2.798517045200356</v>
+        <v>2.249407901069816</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.104287119218384</v>
+        <v>3.248446857941474</v>
       </c>
       <c r="C13">
-        <v>0.2668690749977429</v>
+        <v>0.8494673655563361</v>
       </c>
       <c r="D13">
-        <v>0.2098988909180264</v>
+        <v>0.1724831653065735</v>
       </c>
       <c r="E13">
-        <v>0.1580149129163573</v>
+        <v>0.1067289807592289</v>
       </c>
       <c r="F13">
-        <v>1.225763632141636</v>
+        <v>0.9853051073107935</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.5118691004029507</v>
+        <v>0.2500657987549317</v>
       </c>
       <c r="J13">
-        <v>0.1600689384415617</v>
+        <v>0.09145867530903473</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4381801438148258</v>
+        <v>0.9792415914830386</v>
       </c>
       <c r="N13">
-        <v>1.146131850495621</v>
+        <v>0.6271720395444831</v>
       </c>
       <c r="O13">
-        <v>2.797742640936434</v>
+        <v>2.240784350347695</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.087309732006418</v>
+        <v>3.191120475522439</v>
       </c>
       <c r="C14">
-        <v>0.26244440410008</v>
+        <v>0.834563416143169</v>
       </c>
       <c r="D14">
-        <v>0.2094183144476602</v>
+        <v>0.1701393429615905</v>
       </c>
       <c r="E14">
-        <v>0.157866982027695</v>
+        <v>0.1055210783807574</v>
       </c>
       <c r="F14">
-        <v>1.224405216460767</v>
+        <v>0.9728835304665324</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.5125165105338532</v>
+        <v>0.2488597512934767</v>
       </c>
       <c r="J14">
-        <v>0.1600800513221969</v>
+        <v>0.09065581920817323</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4333963976941746</v>
+        <v>0.9619247764768488</v>
       </c>
       <c r="N14">
-        <v>1.147589288035718</v>
+        <v>0.6299818826691492</v>
       </c>
       <c r="O14">
-        <v>2.795263039308026</v>
+        <v>2.212823286280724</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.076910186881832</v>
+        <v>3.156030124669712</v>
       </c>
       <c r="C15">
-        <v>0.2597336088314819</v>
+        <v>0.8254410218828525</v>
       </c>
       <c r="D15">
-        <v>0.2091252448615393</v>
+        <v>0.1687067752101825</v>
       </c>
       <c r="E15">
-        <v>0.1577776514281481</v>
+        <v>0.1047844893205543</v>
       </c>
       <c r="F15">
-        <v>1.22358724210919</v>
+        <v>0.9653214860770305</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.5129197250847142</v>
+        <v>0.2481415522755128</v>
       </c>
       <c r="J15">
-        <v>0.1600884058617069</v>
+        <v>0.0901683118709613</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4304679106346327</v>
+        <v>0.9513294231037008</v>
       </c>
       <c r="N15">
-        <v>1.148490953553555</v>
+        <v>0.6317282781374516</v>
       </c>
       <c r="O15">
-        <v>2.793779474379676</v>
+        <v>2.195819444685725</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.017309348628203</v>
+        <v>2.955281117570678</v>
       </c>
       <c r="C16">
-        <v>0.2441908209205508</v>
+        <v>0.7732599277691463</v>
       </c>
       <c r="D16">
-        <v>0.2074657191061817</v>
+        <v>0.16054321019665</v>
       </c>
       <c r="E16">
-        <v>0.1572853910383287</v>
+        <v>0.1006122911913465</v>
       </c>
       <c r="F16">
-        <v>1.219115758216986</v>
+        <v>0.9226766243809124</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.5153323392106444</v>
+        <v>0.2443316636627557</v>
       </c>
       <c r="J16">
-        <v>0.1601600021235257</v>
+        <v>0.08743808750569571</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4137121839296896</v>
+        <v>0.8907818686006905</v>
       </c>
       <c r="N16">
-        <v>1.153795134015027</v>
+        <v>0.6421156441406453</v>
       </c>
       <c r="O16">
-        <v>2.785817956708058</v>
+        <v>2.100202554428591</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9807425269557939</v>
+        <v>2.832405933549865</v>
       </c>
       <c r="C17">
-        <v>0.2346486369505669</v>
+        <v>0.7413263734931093</v>
       </c>
       <c r="D17">
-        <v>0.2064655012970746</v>
+        <v>0.1555745212689743</v>
       </c>
       <c r="E17">
-        <v>0.1570009649045261</v>
+        <v>0.09809485540709062</v>
       </c>
       <c r="F17">
-        <v>1.216565348463746</v>
+        <v>0.8971068369560271</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.5169032870569943</v>
+        <v>0.2422577678355964</v>
       </c>
       <c r="J17">
-        <v>0.1602250892587094</v>
+        <v>0.08581782669438809</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4034567935567637</v>
+        <v>0.8537800606456329</v>
       </c>
       <c r="N17">
-        <v>1.15717144630581</v>
+        <v>0.6488180039829032</v>
       </c>
       <c r="O17">
-        <v>2.781415534259054</v>
+        <v>2.043107943666996</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9597093364213265</v>
+        <v>2.761823777421682</v>
       </c>
       <c r="C18">
-        <v>0.2291576765708498</v>
+        <v>0.7229847674251744</v>
       </c>
       <c r="D18">
-        <v>0.2058967839038246</v>
+        <v>0.1527305356244568</v>
       </c>
       <c r="E18">
-        <v>0.1568438312565377</v>
+        <v>0.09666175266905697</v>
       </c>
       <c r="F18">
-        <v>1.21516922239816</v>
+        <v>0.8826077174890372</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.5178402202562253</v>
+        <v>0.2411580120874639</v>
       </c>
       <c r="J18">
-        <v>0.1602703036015143</v>
+        <v>0.08490520320614792</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3975669880895083</v>
+        <v>0.8325461218695551</v>
       </c>
       <c r="N18">
-        <v>1.159158395587156</v>
+        <v>0.6527910029704387</v>
       </c>
       <c r="O18">
-        <v>2.779060279741913</v>
+        <v>2.010817870884352</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9525877405669689</v>
+        <v>2.73794084800744</v>
       </c>
       <c r="C19">
-        <v>0.227298102813478</v>
+        <v>0.716778768718541</v>
       </c>
       <c r="D19">
-        <v>0.2057053584732671</v>
+        <v>0.1517699377633051</v>
       </c>
       <c r="E19">
-        <v>0.1567917388644204</v>
+        <v>0.09617902523138611</v>
       </c>
       <c r="F19">
-        <v>1.214708677037876</v>
+        <v>0.877733410060344</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.5181631769639559</v>
+        <v>0.2408013019531872</v>
       </c>
       <c r="J19">
-        <v>0.1602869482536207</v>
+        <v>0.08459944917826334</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3955743273085019</v>
+        <v>0.8253646658884577</v>
       </c>
       <c r="N19">
-        <v>1.159838869798492</v>
+        <v>0.6541561486398706</v>
       </c>
       <c r="O19">
-        <v>2.778293202352529</v>
+        <v>1.999977006152534</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9846352323193628</v>
+        <v>2.845476429508324</v>
       </c>
       <c r="C20">
-        <v>0.2356646845793762</v>
+        <v>0.7447230283904389</v>
       </c>
       <c r="D20">
-        <v>0.2065712955447481</v>
+        <v>0.156101997536453</v>
       </c>
       <c r="E20">
-        <v>0.1570305740615154</v>
+        <v>0.09836128950016132</v>
       </c>
       <c r="F20">
-        <v>1.216829515842051</v>
+        <v>0.8998070547187069</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.5167326029726702</v>
+        <v>0.2424688211383881</v>
       </c>
       <c r="J20">
-        <v>0.1602173556298894</v>
+        <v>0.08598829083923221</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.40454758666732</v>
+        <v>0.8577138622445091</v>
       </c>
       <c r="N20">
-        <v>1.156807376758387</v>
+        <v>0.6480922426358759</v>
       </c>
       <c r="O20">
-        <v>2.78186586808576</v>
+        <v>2.049128360071222</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.092296488922329</v>
+        <v>3.207953623628271</v>
       </c>
       <c r="C21">
-        <v>0.2637441537028167</v>
+        <v>0.8389396526850135</v>
       </c>
       <c r="D21">
-        <v>0.2095592011586263</v>
+        <v>0.1708271326237707</v>
       </c>
       <c r="E21">
-        <v>0.1579101659275395</v>
+        <v>0.1058751802114557</v>
       </c>
       <c r="F21">
-        <v>1.224801278718161</v>
+        <v>0.9765222958643278</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.5123249629452147</v>
+        <v>0.2492096942945636</v>
       </c>
       <c r="J21">
-        <v>0.1600764646849626</v>
+        <v>0.09089074404311503</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4348011471578559</v>
+        <v>0.9670086851693966</v>
       </c>
       <c r="N21">
-        <v>1.147159339667787</v>
+        <v>0.6291512745500825</v>
       </c>
       <c r="O21">
-        <v>2.795984009016109</v>
+        <v>2.22101032066189</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.162642322198735</v>
+        <v>3.445888259447543</v>
       </c>
       <c r="C22">
-        <v>0.2820710478123374</v>
+        <v>0.9008078789235299</v>
       </c>
       <c r="D22">
-        <v>0.2115700984425359</v>
+        <v>0.1805875608303893</v>
       </c>
       <c r="E22">
-        <v>0.1585424003534968</v>
+        <v>0.1109313743106171</v>
       </c>
       <c r="F22">
-        <v>1.230642082548655</v>
+        <v>1.028717021662814</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.5097421791049541</v>
+        <v>0.2545245037612922</v>
       </c>
       <c r="J22">
-        <v>0.1600536498056897</v>
+        <v>0.09428356943198679</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4546497892959493</v>
+        <v>1.038952481529712</v>
       </c>
       <c r="N22">
-        <v>1.14125408985025</v>
+        <v>0.6178949339399225</v>
       </c>
       <c r="O22">
-        <v>2.806788968843136</v>
+        <v>2.33878660862257</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.125099410752682</v>
+        <v>3.318792615079133</v>
       </c>
       <c r="C23">
-        <v>0.2722919912889381</v>
+        <v>0.8677576926591257</v>
       </c>
       <c r="D23">
-        <v>0.2104915491309214</v>
+        <v>0.1753650634410775</v>
       </c>
       <c r="E23">
-        <v>0.1581997233863532</v>
+        <v>0.1082188195022518</v>
       </c>
       <c r="F23">
-        <v>1.227467002841891</v>
+        <v>1.000661138110445</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.5110933687503092</v>
+        <v>0.2516006396590065</v>
       </c>
       <c r="J23">
-        <v>0.1600594885472759</v>
+        <v>0.09245462883496458</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4440493392536595</v>
+        <v>1.000503636548508</v>
       </c>
       <c r="N23">
-        <v>1.144369217799522</v>
+        <v>0.6237962951682618</v>
       </c>
       <c r="O23">
-        <v>2.80087764940572</v>
+        <v>2.27540144358403</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9828753726376931</v>
+        <v>2.839567072363309</v>
       </c>
       <c r="C24">
-        <v>0.2352053450989615</v>
+        <v>0.74318734713205</v>
       </c>
       <c r="D24">
-        <v>0.2065234462712198</v>
+        <v>0.1558634864748853</v>
       </c>
       <c r="E24">
-        <v>0.1570171678661048</v>
+        <v>0.09824079054422086</v>
       </c>
       <c r="F24">
-        <v>1.216709867296032</v>
+        <v>0.8985856615062886</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.5168096640494184</v>
+        <v>0.2423731165216623</v>
       </c>
       <c r="J24">
-        <v>0.1602208277229877</v>
+        <v>0.08591116535575338</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4040544199037015</v>
+        <v>0.8559352702731218</v>
       </c>
       <c r="N24">
-        <v>1.156971829736889</v>
+        <v>0.648419987211021</v>
       </c>
       <c r="O24">
-        <v>2.781661724716059</v>
+        <v>2.046404871292452</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8294331560998671</v>
+        <v>2.326071694618349</v>
       </c>
       <c r="C25">
-        <v>0.1951049809720757</v>
+        <v>0.6097707270363912</v>
       </c>
       <c r="D25">
-        <v>0.202495090591313</v>
+        <v>0.1353515900162847</v>
       </c>
       <c r="E25">
-        <v>0.1559886840671147</v>
+        <v>0.08803936345599084</v>
       </c>
       <c r="F25">
-        <v>1.207813176399526</v>
+        <v>0.7963279927531204</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.5242507989951015</v>
+        <v>0.2359385447520275</v>
       </c>
       <c r="J25">
-        <v>0.1606922174407046</v>
+        <v>0.07958267864025004</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3612520267732222</v>
+        <v>0.7018094339302934</v>
       </c>
       <c r="N25">
-        <v>1.172285828940971</v>
+        <v>0.6794548924727479</v>
       </c>
       <c r="O25">
-        <v>2.767695776451376</v>
+        <v>1.820117789708746</v>
       </c>
     </row>
   </sheetData>
